--- a/lexicons-used.xlsx
+++ b/lexicons-used.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boedt\OneDrive\Bureaublad\Thesis Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A100630-F1FE-42E3-BF2F-F3E0496FF49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1CD444-5745-4407-B4B1-22EC4F185F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{2D55A347-3330-4893-979A-9E6A77FE8C27}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="3" activeTab="5" xr2:uid="{2D55A347-3330-4893-979A-9E6A77FE8C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Change" sheetId="1" r:id="rId1"/>
     <sheet name="IPCC" sheetId="2" r:id="rId2"/>
     <sheet name="Wikipedia" sheetId="3" r:id="rId3"/>
+    <sheet name="EPA" sheetId="4" r:id="rId4"/>
+    <sheet name="BBC" sheetId="5" r:id="rId5"/>
+    <sheet name="UNDP" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="866">
   <si>
     <t>100-year flood</t>
   </si>
@@ -2030,6 +2033,678 @@
   </si>
   <si>
     <t xml:space="preserve">United Nations Framework Convention on Climate Change </t>
+  </si>
+  <si>
+    <t>Abrupt Climate Change</t>
+  </si>
+  <si>
+    <t>Adaptive Capacity</t>
+  </si>
+  <si>
+    <t>Aerosols</t>
+  </si>
+  <si>
+    <t>Alternative Energy</t>
+  </si>
+  <si>
+    <t>Annex I Countries/Parties</t>
+  </si>
+  <si>
+    <t>Atmospheric Lifetime</t>
+  </si>
+  <si>
+    <t>Biogeochemical Cycle</t>
+  </si>
+  <si>
+    <t>Biosphere</t>
+  </si>
+  <si>
+    <t>Black Carbon Aerosol</t>
+  </si>
+  <si>
+    <t>Borehole</t>
+  </si>
+  <si>
+    <t>Carbon Cycle</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide Equivalent</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide Fertilization</t>
+  </si>
+  <si>
+    <t>Carbon Footprint</t>
+  </si>
+  <si>
+    <t>Carbon Sequestration</t>
+  </si>
+  <si>
+    <t>Carbon Capture and Sequestration</t>
+  </si>
+  <si>
+    <t>Chlorofluorocarbons</t>
+  </si>
+  <si>
+    <t>Climate Change</t>
+  </si>
+  <si>
+    <t>Climate Feedback</t>
+  </si>
+  <si>
+    <t>Climate Lag</t>
+  </si>
+  <si>
+    <t>Climate Model</t>
+  </si>
+  <si>
+    <t>Climate Sensitivity</t>
+  </si>
+  <si>
+    <t>Coal Mine Methane</t>
+  </si>
+  <si>
+    <t>Coalbed Methane</t>
+  </si>
+  <si>
+    <t>Co-Benefit</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Conference of the Parties</t>
+  </si>
+  <si>
+    <t>Coral Bleaching</t>
+  </si>
+  <si>
+    <t>Cryosphere</t>
+  </si>
+  <si>
+    <t>Desertification</t>
+  </si>
+  <si>
+    <t>Dryland Farming</t>
+  </si>
+  <si>
+    <t>Eccentricity</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>Emissions Factor</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>ENERGY STAR</t>
+  </si>
+  <si>
+    <t>Enhanced Greenhouse Effect</t>
+  </si>
+  <si>
+    <t>Enteric Fermentation</t>
+  </si>
+  <si>
+    <t>Evaporation</t>
+  </si>
+  <si>
+    <t>Feedback Mechanisms</t>
+  </si>
+  <si>
+    <t>Fluorinated Gases</t>
+  </si>
+  <si>
+    <t>Fluorocarbons</t>
+  </si>
+  <si>
+    <t>Forcing Mechanism</t>
+  </si>
+  <si>
+    <t>Fossil Fuel</t>
+  </si>
+  <si>
+    <t>Fuel Switching</t>
+  </si>
+  <si>
+    <t>Geosphere</t>
+  </si>
+  <si>
+    <t>Global Average Temperature</t>
+  </si>
+  <si>
+    <t>Global Warming</t>
+  </si>
+  <si>
+    <t>Global Warming Potential</t>
+  </si>
+  <si>
+    <t>Greenhouse Effect</t>
+  </si>
+  <si>
+    <t>Habitat Fragmentation</t>
+  </si>
+  <si>
+    <t>Heat Island</t>
+  </si>
+  <si>
+    <t>Heat Waves</t>
+  </si>
+  <si>
+    <t>Hydrocarbons</t>
+  </si>
+  <si>
+    <t>Hydrologic Cycle</t>
+  </si>
+  <si>
+    <t>Hydrosphere</t>
+  </si>
+  <si>
+    <t>Ice Core</t>
+  </si>
+  <si>
+    <t>Indirect Emissions</t>
+  </si>
+  <si>
+    <t>Industrial Revolution</t>
+  </si>
+  <si>
+    <t>Infrared Radiation</t>
+  </si>
+  <si>
+    <t>Inundation</t>
+  </si>
+  <si>
+    <t>Landfill</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Least Developed Country</t>
+  </si>
+  <si>
+    <t>Longwave Radiation</t>
+  </si>
+  <si>
+    <t>Megacities</t>
+  </si>
+  <si>
+    <t>Metric Ton</t>
+  </si>
+  <si>
+    <t>Mount Pinatubo</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Natural Variability</t>
+  </si>
+  <si>
+    <t>Nitrogen Cycle</t>
+  </si>
+  <si>
+    <t>Ocean Acidification</t>
+  </si>
+  <si>
+    <t>Oxidize</t>
+  </si>
+  <si>
+    <t>Ozone Layer</t>
+  </si>
+  <si>
+    <t>Ozone Precursors</t>
+  </si>
+  <si>
+    <t>Photosynthesis</t>
+  </si>
+  <si>
+    <t>Precession</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Radiative Forcing</t>
+  </si>
+  <si>
+    <t>Recycling</t>
+  </si>
+  <si>
+    <t>Reflectivity</t>
+  </si>
+  <si>
+    <t>Relative Sea Level Rise</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Residence Time</t>
+  </si>
+  <si>
+    <t>Respiration</t>
+  </si>
+  <si>
+    <t>Salt Water Intrusion</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Sea Surface Temperature</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Short Ton</t>
+  </si>
+  <si>
+    <t>Soil Carbon</t>
+  </si>
+  <si>
+    <t>Solar Radiation</t>
+  </si>
+  <si>
+    <t>Storm Surge</t>
+  </si>
+  <si>
+    <t>Stratospheric Ozone</t>
+  </si>
+  <si>
+    <t>Streamflow</t>
+  </si>
+  <si>
+    <t>Subsiding/Subsidence</t>
+  </si>
+  <si>
+    <t>Sulfate Aerosols</t>
+  </si>
+  <si>
+    <t>Teragram</t>
+  </si>
+  <si>
+    <t>Thermal Expansion</t>
+  </si>
+  <si>
+    <t>Thermohaline Circulation</t>
+  </si>
+  <si>
+    <t>Trace Gas</t>
+  </si>
+  <si>
+    <t>Tropospheric Ozone Precursors</t>
+  </si>
+  <si>
+    <t>Tundra</t>
+  </si>
+  <si>
+    <t>Wastewater</t>
+  </si>
+  <si>
+    <t>Water Vapor</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>100-Year Flood Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Niño - Southern Oscillation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Circulation Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenhouse Gas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrochlorofluorocarbons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrofluorocarbons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intergovernmental Panel on climate Change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipal Solid Waste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Oxides </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrous Oxide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Methane Volatile Organic Compounds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone Depleting Substance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate matter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts Per Billion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts Per Million by Volume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts Per Trillion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfluorocarbons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfur Hexafluoride </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropospheric Ozone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultraviolet Radiation </t>
+  </si>
+  <si>
+    <t>or Earth System</t>
+  </si>
+  <si>
+    <t>GCM</t>
+  </si>
+  <si>
+    <t>HCFCs</t>
+  </si>
+  <si>
+    <t>HFCs</t>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>NMVOCs</t>
+  </si>
+  <si>
+    <t>ODS</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>ppb</t>
+  </si>
+  <si>
+    <t>ppmv</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>PFCs</t>
+  </si>
+  <si>
+    <t>SF6</t>
+  </si>
+  <si>
+    <t>UV</t>
+  </si>
+  <si>
+    <t>Adaptation fund</t>
+  </si>
+  <si>
+    <t>Annex I countries</t>
+  </si>
+  <si>
+    <t>Annex II</t>
+  </si>
+  <si>
+    <t>Anthropogenic climate change</t>
+  </si>
+  <si>
+    <t>Aosis</t>
+  </si>
+  <si>
+    <t>AR4</t>
+  </si>
+  <si>
+    <t>AR5</t>
+  </si>
+  <si>
+    <t>Atmospheric aerosols</t>
+  </si>
+  <si>
+    <t>Bali action plan</t>
+  </si>
+  <si>
+    <t>Bali roadmap</t>
+  </si>
+  <si>
+    <t>Baseline for cuts</t>
+  </si>
+  <si>
+    <t>Business as usual</t>
+  </si>
+  <si>
+    <t>Cap and trade</t>
+  </si>
+  <si>
+    <t>Carbon dioxide  equivalent</t>
+  </si>
+  <si>
+    <t>Carbon footprint</t>
+  </si>
+  <si>
+    <t>Carbon leakage</t>
+  </si>
+  <si>
+    <t>Carbon neutral</t>
+  </si>
+  <si>
+    <t>Carbon offsetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certified Emission Reduction </t>
+  </si>
+  <si>
+    <t>CFCs</t>
+  </si>
+  <si>
+    <t>Clean coal technology</t>
+  </si>
+  <si>
+    <t>Country in transition</t>
+  </si>
+  <si>
+    <t>Dangerous climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emission Trading Scheme </t>
+  </si>
+  <si>
+    <t>EU Burden-sharing agreement</t>
+  </si>
+  <si>
+    <t>Feedback loop</t>
+  </si>
+  <si>
+    <t>Flexible mechanism</t>
+  </si>
+  <si>
+    <t>G77</t>
+  </si>
+  <si>
+    <t>Geological sequestration</t>
+  </si>
+  <si>
+    <t>Global average temperature</t>
+  </si>
+  <si>
+    <t>Global energy budget</t>
+  </si>
+  <si>
+    <t>Global dimming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Warming Potential </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenhouse gases </t>
+  </si>
+  <si>
+    <t>Greenhouse effect</t>
+  </si>
+  <si>
+    <t>Hockey stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint implementation </t>
+  </si>
+  <si>
+    <t>LDCs</t>
+  </si>
+  <si>
+    <t>Major Economies Forum on Energy and Climate</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Natural greenhouse effect</t>
+  </si>
+  <si>
+    <t>Non-annex I countries</t>
+  </si>
+  <si>
+    <t>Per-capita emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppm </t>
+  </si>
+  <si>
+    <t>Pre-industrial levels of carbon dioxide</t>
+  </si>
+  <si>
+    <t>Renewable energy</t>
+  </si>
+  <si>
+    <t>REDD</t>
+  </si>
+  <si>
+    <t>Stern review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-twenty-twenty </t>
+  </si>
+  <si>
+    <t>CER</t>
+  </si>
+  <si>
+    <t>ETS</t>
+  </si>
+  <si>
+    <t>GWP</t>
+  </si>
+  <si>
+    <t>GHGs</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>350/450</t>
+  </si>
+  <si>
+    <t>20-20-20</t>
+  </si>
+  <si>
+    <t>Greenhouse gas emmisions</t>
+  </si>
+  <si>
+    <t>Feedback Loop</t>
+  </si>
+  <si>
+    <t>Climate overshoot</t>
+  </si>
+  <si>
+    <t>Nature-based solutions</t>
+  </si>
+  <si>
+    <t>Loss and damage</t>
+  </si>
+  <si>
+    <t>Climate security</t>
+  </si>
+  <si>
+    <t>Climate finance</t>
+  </si>
+  <si>
+    <t>net zero</t>
+  </si>
+  <si>
+    <t>Carbon removal</t>
+  </si>
+  <si>
+    <t>Carbon capture</t>
+  </si>
+  <si>
+    <t>Carbon markets</t>
+  </si>
+  <si>
+    <t>Regenerative agriculture</t>
+  </si>
+  <si>
+    <t>Rewilding</t>
+  </si>
+  <si>
+    <t>circular economy</t>
+  </si>
+  <si>
+    <t>blue economy</t>
+  </si>
+  <si>
+    <t>Green jobs</t>
+  </si>
+  <si>
+    <t>Greenwashing</t>
+  </si>
+  <si>
+    <t>just transition</t>
+  </si>
+  <si>
+    <t>Nationally Determined Contributions</t>
+  </si>
+  <si>
+    <t>Transparent reporting</t>
+  </si>
+  <si>
+    <t>Transparency</t>
+  </si>
+  <si>
+    <t>National Adaptation Plans</t>
+  </si>
+  <si>
+    <t>Long-term strategies</t>
+  </si>
+  <si>
+    <t>Intergovernmental Panel on Climate Change</t>
   </si>
 </sst>
 </file>
@@ -5143,7 +5818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A333DF3-BBFD-4F8B-AB29-D07606F85C91}">
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0"/>
+    <sheetView topLeftCell="A154" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6468,4 +7143,1570 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49E4FEE-646C-4448-8486-25CECFB582C9}">
+  <dimension ref="A1:A176"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7E0117-FDB4-4289-BB30-6CC26A17FE78}">
+  <dimension ref="A1:A81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>841</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFB9CBD-312B-4C87-8465-7A282C4D557F}">
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>